--- a/Excel/K & K JEANS.xlsx
+++ b/Excel/K & K JEANS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szlau\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szlau\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B601F-ED8B-46F4-995F-E16C9B45C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7DE3D-8E51-4C8C-A33D-1FBFA81188C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AE3D728-237A-4EAF-B220-B1A05571330E}"/>
   </bookViews>
@@ -89,19 +89,79 @@
     <t>K &amp; K JEANS    Modeling Profit &amp; the Break-Even Point</t>
   </si>
   <si>
-    <t>Project Introduction: K &amp; K JEANS is a retail store specializing in branded jeans. The company places OEM orders and sells the products under its own brand name. K &amp; K JEANS must place orders before each season begins. As a result, accurate demand forecasting is essential. By analyzing the relationship between orders and actual demand, the company aims to identify the optimal order quantity that ensures profitability and minimizes excess inventory.</t>
-  </si>
-  <si>
-    <t>Objective:  determine the break-even point, assess profitability. This analysis supports effective financial budgeting and helps sustain long-term business growth.</t>
-  </si>
-  <si>
-    <t>Learning point: Vlookup, Min(), Max(), IF() functions, Data Analysis using What-If analysis with Two-way Table, Formating Table</t>
-  </si>
-  <si>
     <t>PROFIT BASED ON DEMAND AND ORDER QUANTITIES</t>
   </si>
   <si>
     <t>Profit($)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Introduction:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> K &amp; K JEANS is a retail store specializing in branded jeans. The company places OEM orders and sells the products under its own brand name. K &amp; K JEANS must place orders before each season begins. As a result, accurate demand forecasting is essential. By analyzing the relationship between orders and actual demand, the company aims to identify the optimal order quantity that ensures profitability and minimizes excess inventory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Objective: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> determine the break-even point, assess profitability. This analysis supports effective financial budgeting and helps sustain long-term business growth.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learning point:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vlookup, Min(), Max(), IF() functions, Data Analysis using What-If analysis with Two-way Table, Conditional Formating Table</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -112,7 +172,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;¥&quot;* #,##0_);_(&quot;¥&quot;* \(#,##0\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +212,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -243,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,6 +331,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,12 +343,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -615,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC76DD5-8CFD-4099-A1BB-54FDFA9702D0}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +696,8 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -639,29 +709,29 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="A2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -702,7 +772,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -740,20 +810,20 @@
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=IF(B11&gt;B12,0,B12-B11)</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -809,71 +879,71 @@
         <f ca="1">_xlfn.FORMULATEXT(B17)</f>
         <v>=VLOOKUP(B12,A37:B41,2,TRUE)*B12</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="5">
         <v>500</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="18">
         <v>3000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="18">
         <v>3000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="18">
         <v>3000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="18">
         <v>3000</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="18">
         <v>3000</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="18">
         <v>3000</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="18">
         <v>3000</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="18">
         <v>3000</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="18">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="5">
         <v>1000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="18">
         <v>-3000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="18">
         <v>7000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="18">
         <v>7000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="18">
         <v>7000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="18">
         <v>7000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="18">
         <v>7000</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="18">
         <v>7000</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="18">
         <v>7000</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="18">
         <v>7000</v>
       </c>
     </row>
@@ -889,103 +959,103 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=MIN(B11:B12)*B7+B8*B14</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="5">
         <v>1500</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="18">
         <v>-9500</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="18">
         <v>500</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="18">
         <v>10500</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="18">
         <v>10500</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="18">
         <v>10500</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="18">
         <v>10500</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="18">
         <v>10500</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="18">
         <v>10500</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="18">
         <v>10500</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="5">
         <v>2000</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="18">
         <v>-16500</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="18">
         <v>-6500</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="18">
         <v>3500</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="18">
         <v>13500</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="18">
         <v>13500</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="18">
         <v>13500</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="18">
         <v>13500</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="18">
         <v>13500</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="18">
         <v>13500</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="5">
         <v>2500</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="18">
         <v>-23125</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="18">
         <v>-13125</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="18">
         <v>-3125</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="18">
         <v>6875</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="18">
         <v>16875</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="18">
         <v>16875</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="18">
         <v>16875</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="18">
         <v>16875</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="18">
         <v>16875</v>
       </c>
     </row>
@@ -1001,134 +1071,134 @@
         <f t="shared" ref="C22" ca="1" si="0">_xlfn.FORMULATEXT(B22)</f>
         <v>=B19-B17</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="5">
         <v>3000</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="18">
         <v>-26000</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="18">
         <v>-16000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="18">
         <v>-6000</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="18">
         <v>4000</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="18">
         <v>14000</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="18">
         <v>24000</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="18">
         <v>24000</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="18">
         <v>24000</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="18">
         <v>24000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="14"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="5">
         <v>3500</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="18">
         <v>-32000</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="18">
         <v>-22000</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="18">
         <v>-12000</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="18">
         <v>-2000</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="18">
         <v>8000</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="18">
         <v>18000</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="18">
         <v>28000</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="18">
         <v>28000</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="18">
         <v>28000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="14"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="5">
         <v>4000</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="18">
         <v>-34000</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="18">
         <v>-24000</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="18">
         <v>-14000</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="18">
         <v>-4000</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="18">
         <v>6000</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="18">
         <v>16000</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="18">
         <v>26000</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="18">
         <v>36000</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="18">
         <v>36000</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="5">
         <v>4500</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="18">
         <v>-39500</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="18">
         <v>-29500</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="18">
         <v>-19500</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="18">
         <v>-9500</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="18">
         <v>500</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="18">
         <v>10500</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="18">
         <v>20500</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="18">
         <v>30500</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="18">
         <v>40500</v>
       </c>
     </row>
@@ -1142,7 +1212,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">

--- a/Excel/K & K JEANS.xlsx
+++ b/Excel/K & K JEANS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szlau\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7DE3D-8E51-4C8C-A33D-1FBFA81188C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7E27C-DF63-4B45-9A10-A3C77E4C829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AE3D728-237A-4EAF-B220-B1A05571330E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Regular Price:</t>
   </si>
@@ -89,56 +89,7 @@
     <t>K &amp; K JEANS    Modeling Profit &amp; the Break-Even Point</t>
   </si>
   <si>
-    <t>PROFIT BASED ON DEMAND AND ORDER QUANTITIES</t>
-  </si>
-  <si>
     <t>Profit($)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Project Introduction:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> K &amp; K JEANS is a retail store specializing in branded jeans. The company places OEM orders and sells the products under its own brand name. K &amp; K JEANS must place orders before each season begins. As a result, accurate demand forecasting is essential. By analyzing the relationship between orders and actual demand, the company aims to identify the optimal order quantity that ensures profitability and minimizes excess inventory.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Objective: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> determine the break-even point, assess profitability. This analysis supports effective financial budgeting and helps sustain long-term business growth.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -163,6 +114,19 @@
       <t xml:space="preserve"> Vlookup, Min(), Max(), IF() functions, Data Analysis using What-If analysis with Two-way Table, Conditional Formating Table</t>
     </r>
   </si>
+  <si>
+    <t>Business Scenario:
+K &amp; K JEANS is a retail clothing store specializing in branded jeans. The company places OEM orders and sells the products under its own brand name. Since orders must be placed before the start of each season, accurate demand forecasting and clear target setting are critical. Understanding the relationship between demand, order volume, and profitability will provide K &amp; K JEANS with a competitive edge and help ensure sustainable growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Problem:  how to find out the break even point so not to over place order? </t>
+  </si>
+  <si>
+    <t>PROFIT TABLE BASED ON DEMAND AND ORDER QUANTITIES</t>
+  </si>
+  <si>
+    <t>Findings:  the conditional formated table shows if the order quantity is 4500 pcs, the company will only start making profit when the demand quantity is around 2500 pcs, the break even point is  2475 pcs, at which the profit is zero.</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;¥&quot;* #,##0_);_(&quot;¥&quot;* \(#,##0\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +185,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -319,7 +291,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,7 +318,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -684,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC76DD5-8CFD-4099-A1BB-54FDFA9702D0}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,8 +679,8 @@
     <col min="10" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
@@ -709,7 +688,7 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16"/>
@@ -730,7 +709,7 @@
       <c r="Q2" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -755,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>4000</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -767,12 +746,12 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.4">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -791,7 +770,7 @@
       </c>
       <c r="B14">
         <f>MAX(B12-B11,0)</f>
-        <v>500</v>
+        <v>2025</v>
       </c>
       <c r="C14" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B14)</f>
@@ -804,14 +783,14 @@
       </c>
       <c r="B15">
         <f>IF(B11&gt;B12,0,B12-B11)</f>
-        <v>500</v>
+        <v>2025</v>
       </c>
       <c r="C15" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=IF(B11&gt;B12,0,B12-B11)</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>18</v>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>6</v>
@@ -828,7 +807,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>IF(B12&gt;B11,B12-B11,0)</f>
-        <v>500</v>
+        <v>2025</v>
       </c>
       <c r="C16" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B16)</f>
@@ -836,7 +815,7 @@
       </c>
       <c r="F16" s="4">
         <f>B22</f>
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
         <v>500</v>
@@ -885,31 +864,31 @@
       <c r="F17" s="5">
         <v>500</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="13">
         <v>3000</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="13">
         <v>3000</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="13">
         <v>3000</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="13">
         <v>3000</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="13">
         <v>3000</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="13">
         <v>3000</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="13">
         <v>3000</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="13">
         <v>3000</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="13">
         <v>3000</v>
       </c>
     </row>
@@ -919,31 +898,31 @@
       <c r="F18" s="5">
         <v>1000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="13">
         <v>-3000</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="13">
         <v>7000</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="13">
         <v>7000</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="13">
         <v>7000</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="13">
         <v>7000</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="13">
         <v>7000</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="13">
         <v>7000</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="13">
         <v>7000</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="13">
         <v>7000</v>
       </c>
     </row>
@@ -953,7 +932,7 @@
       </c>
       <c r="B19" s="2">
         <f>MIN(B11:B12)*B7+B8*B14</f>
-        <v>125000</v>
+        <v>94500</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
@@ -963,31 +942,31 @@
       <c r="F19" s="5">
         <v>1500</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="13">
         <v>-9500</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="13">
         <v>500</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="13">
         <v>10500</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="13">
         <v>10500</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="13">
         <v>10500</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="13">
         <v>10500</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="13">
         <v>10500</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="13">
         <v>10500</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="13">
         <v>10500</v>
       </c>
     </row>
@@ -997,31 +976,31 @@
       <c r="F20" s="5">
         <v>2000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="13">
         <v>-16500</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="13">
         <v>-6500</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="13">
         <v>3500</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="13">
         <v>13500</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="13">
         <v>13500</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="13">
         <v>13500</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="13">
         <v>13500</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="13">
         <v>13500</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="13">
         <v>13500</v>
       </c>
     </row>
@@ -1031,31 +1010,31 @@
       <c r="F21" s="5">
         <v>2500</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="13">
         <v>-23125</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="13">
         <v>-13125</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="13">
         <v>-3125</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="13">
         <v>6875</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="13">
         <v>16875</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="13">
         <v>16875</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="13">
         <v>16875</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="13">
         <v>16875</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="13">
         <v>16875</v>
       </c>
     </row>
@@ -1065,7 +1044,7 @@
       </c>
       <c r="B22" s="2">
         <f>B19-B17</f>
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22" ca="1" si="0">_xlfn.FORMULATEXT(B22)</f>
@@ -1075,31 +1054,31 @@
       <c r="F22" s="5">
         <v>3000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="13">
         <v>-26000</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="13">
         <v>-16000</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="13">
         <v>-6000</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="13">
         <v>4000</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="13">
         <v>14000</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="13">
         <v>24000</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="13">
         <v>24000</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="13">
         <v>24000</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="13">
         <v>24000</v>
       </c>
     </row>
@@ -1108,31 +1087,31 @@
       <c r="F23" s="5">
         <v>3500</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="13">
         <v>-32000</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="13">
         <v>-22000</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="13">
         <v>-12000</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="13">
         <v>-2000</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="13">
         <v>8000</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="13">
         <v>18000</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="13">
         <v>28000</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="13">
         <v>28000</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="13">
         <v>28000</v>
       </c>
     </row>
@@ -1141,31 +1120,31 @@
       <c r="F24" s="5">
         <v>4000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="13">
         <v>-34000</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="13">
         <v>-24000</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="13">
         <v>-14000</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="13">
         <v>-4000</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="13">
         <v>6000</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="13">
         <v>16000</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="13">
         <v>26000</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="13">
         <v>36000</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="13">
         <v>36000</v>
       </c>
     </row>
@@ -1174,45 +1153,50 @@
       <c r="F25" s="5">
         <v>4500</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="13">
         <v>-39500</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="13">
         <v>-29500</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="13">
         <v>-19500</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="13">
         <v>-9500</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="13">
         <v>500</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="13">
         <v>10500</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="13">
         <v>20500</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="13">
         <v>30500</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="13">
         <v>40500</v>
       </c>
     </row>
+    <row r="26" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1231,58 +1215,58 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>1</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>1000</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>2000</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>23.25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>3000</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>4000</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>5000</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>21.25</v>
       </c>
     </row>
@@ -1306,5 +1290,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/K & K JEANS.xlsx
+++ b/Excel/K & K JEANS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szlau\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7E27C-DF63-4B45-9A10-A3C77E4C829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE8B79-2D7E-4377-AF06-C61E11B3F0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AE3D728-237A-4EAF-B220-B1A05571330E}"/>
   </bookViews>
@@ -86,10 +86,20 @@
     <t>FORMULAR</t>
   </si>
   <si>
-    <t>K &amp; K JEANS    Modeling Profit &amp; the Break-Even Point</t>
-  </si>
-  <si>
     <t>Profit($)</t>
+  </si>
+  <si>
+    <t>Business Scenario:
+K &amp; K JEANS is a retail clothing store specializing in branded jeans. The company places OEM orders and sells the products under its own brand name. Since orders must be placed before the start of each season, accurate demand forecasting and clear target setting are critical. Understanding the relationship between demand, order volume, and profitability will provide K &amp; K JEANS with a competitive edge and help ensure sustainable growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Problem:  how to find out the break even point so not to over place order? </t>
+  </si>
+  <si>
+    <t>PROFIT TABLE BASED ON DEMAND AND ORDER QUANTITIES</t>
+  </si>
+  <si>
+    <t>K &amp; K JEANS    Modeling Profit &amp; Finding Break-Even Point</t>
   </si>
   <si>
     <r>
@@ -101,7 +111,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Learning point:</t>
+      <t xml:space="preserve">Techniques used: </t>
     </r>
     <r>
       <rPr>
@@ -115,17 +125,7 @@
     </r>
   </si>
   <si>
-    <t>Business Scenario:
-K &amp; K JEANS is a retail clothing store specializing in branded jeans. The company places OEM orders and sells the products under its own brand name. Since orders must be placed before the start of each season, accurate demand forecasting and clear target setting are critical. Understanding the relationship between demand, order volume, and profitability will provide K &amp; K JEANS with a competitive edge and help ensure sustainable growth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Problem:  how to find out the break even point so not to over place order? </t>
-  </si>
-  <si>
-    <t>PROFIT TABLE BASED ON DEMAND AND ORDER QUANTITIES</t>
-  </si>
-  <si>
-    <t>Findings:  the conditional formated table shows if the order quantity is 4500 pcs, the company will only start making profit when the demand quantity is around 2500 pcs, the break even point is  2475 pcs, at which the profit is zero.</t>
+    <t>Findings:  the conditional formated table shows if the order quantity is 4500 pcs, the company will only start making profit when the demand quantity goes around 2500 pcs, the break even point for demand is  2475 pcs, at which the profit is zero.</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -278,12 +278,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -306,24 +367,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC76DD5-8CFD-4099-A1BB-54FDFA9702D0}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,44 +746,46 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
-        <v>16</v>
+    <row r="1" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="A2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
+      <c r="A4" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -746,23 +821,23 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.4">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="E13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -790,19 +865,19 @@
         <v>=IF(B11&gt;B12,0,B12-B11)</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -846,7 +921,7 @@
       </c>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -858,7 +933,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B17)</f>
         <v>=VLOOKUP(B12,A37:B41,2,TRUE)*B12</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="5">
@@ -894,7 +969,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="5">
         <v>1000</v>
       </c>
@@ -938,7 +1013,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=MIN(B11:B12)*B7+B8*B14</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="5">
         <v>1500</v>
       </c>
@@ -972,7 +1047,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="5">
         <v>2000</v>
       </c>
@@ -1006,7 +1081,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="5">
         <v>2500</v>
       </c>
@@ -1050,7 +1125,7 @@
         <f t="shared" ref="C22" ca="1" si="0">_xlfn.FORMULATEXT(B22)</f>
         <v>=B19-B17</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="5">
         <v>3000</v>
       </c>
@@ -1083,7 +1158,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="15"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="5">
         <v>3500</v>
       </c>
@@ -1116,7 +1191,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="15"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="5">
         <v>4000</v>
       </c>
@@ -1149,7 +1224,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="15"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="5">
         <v>4500</v>
       </c>
@@ -1181,10 +1256,21 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>22</v>
       </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -1196,7 +1282,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1271,11 +1357,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="G15:O15"/>
     <mergeCell ref="E17:E25"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="E13:O13"/>
+    <mergeCell ref="A26:L26"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:O25">
     <cfRule type="colorScale" priority="1">
